--- a/public/sample_uploads/fund_formulas.xlsx
+++ b/public/sample_uploads/fund_formulas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
   <si>
     <t xml:space="preserve">Sequence</t>
   </si>
@@ -164,8 +164,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -232,7 +233,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -243,6 +244,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -437,10 +442,10 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.12"/>
@@ -486,7 +491,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -518,13 +523,11 @@
       <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -552,13 +555,11 @@
       <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -589,13 +590,11 @@
       <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -623,13 +622,11 @@
       <c r="H5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -657,13 +654,11 @@
       <c r="H6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,13 +689,11 @@
       <c r="I7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -731,13 +724,11 @@
       <c r="I8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,13 +756,11 @@
       <c r="H9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -802,13 +791,11 @@
       <c r="I10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
